--- a/SHRSS-Content-Architecture-Workbook-v1_3.xlsx
+++ b/SHRSS-Content-Architecture-Workbook-v1_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lambert/Documents/Projects/SHRSS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lambert/Documents/Projects/SHRSS/SHRSS_Knowledge_Transfer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A453E6E-84DD-4B95-9A40-94ECF0F95B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F5C122-3C06-9E49-B4BB-F2D67EB73D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="34560" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="34560" windowHeight="21360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Asset Folders" sheetId="13" r:id="rId1"/>
@@ -3933,44 +3933,6 @@
     <xf numFmtId="0" fontId="23" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="61" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="2" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -3998,6 +3960,44 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="61" fillId="14" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4804,7 +4804,7 @@
   </sheetPr>
   <dimension ref="A1:O1362"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
@@ -4844,44 +4844,44 @@
       <c r="H1" s="117"/>
       <c r="I1" s="114"/>
       <c r="J1" s="118"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
+      <c r="K1" s="183"/>
+      <c r="L1" s="183"/>
+      <c r="M1" s="183"/>
       <c r="N1" s="114"/>
       <c r="O1" s="119"/>
     </row>
     <row r="2" spans="1:15" s="125" customFormat="1" ht="81" customHeight="1">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="201" t="s">
+      <c r="B2" s="184"/>
+      <c r="C2" s="185" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="201"/>
-      <c r="G2" s="201"/>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="201"/>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="201"/>
-      <c r="N2" s="201"/>
-      <c r="O2" s="201"/>
+      <c r="D2" s="185"/>
+      <c r="E2" s="185"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="185"/>
     </row>
     <row r="3" spans="1:15" ht="24" customHeight="1">
       <c r="A3" s="74"/>
-      <c r="B3" s="204" t="s">
+      <c r="B3" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
-      <c r="E3" s="205"/>
-      <c r="F3" s="205"/>
-      <c r="G3" s="205"/>
-      <c r="H3" s="206"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="190"/>
       <c r="I3" s="101" t="s">
         <v>4</v>
       </c>
@@ -30085,10 +30085,10 @@
     </row>
     <row r="1328" spans="1:15" ht="18">
       <c r="B1328" s="72"/>
-      <c r="C1328" s="202" t="s">
+      <c r="C1328" s="186" t="s">
         <v>243</v>
       </c>
-      <c r="D1328" s="203"/>
+      <c r="D1328" s="187"/>
       <c r="E1328" s="100"/>
       <c r="F1328" s="95"/>
       <c r="G1328" s="95"/>
@@ -30282,14 +30282,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="191" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
+      <c r="B1" s="192"/>
+      <c r="C1" s="192"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="192"/>
+      <c r="F1" s="192"/>
     </row>
     <row r="2" spans="1:6" ht="34">
       <c r="A2" s="181" t="s">
@@ -31374,12 +31374,12 @@
       <c r="J1" s="31"/>
       <c r="K1" s="31"/>
       <c r="L1" s="32"/>
-      <c r="M1" s="209"/>
-      <c r="N1" s="209"/>
-      <c r="O1" s="209"/>
-      <c r="P1" s="209"/>
-      <c r="Q1" s="209"/>
-      <c r="R1" s="209"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="193"/>
+      <c r="P1" s="193"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="193"/>
       <c r="S1" s="71"/>
       <c r="T1" s="33"/>
       <c r="U1" s="33"/>
@@ -33299,18 +33299,18 @@
   </sheetPr>
   <dimension ref="A1:Y61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="91.6640625" customWidth="1"/>
-    <col min="2" max="2" width="62.6640625" customWidth="1"/>
-    <col min="3" max="3" width="90.83203125" customWidth="1"/>
+    <col min="1" max="1" width="62.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" customWidth="1"/>
     <col min="4" max="7" width="9.83203125" customWidth="1"/>
     <col min="8" max="8" width="13.1640625" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" customWidth="1"/>
@@ -33540,10 +33540,10 @@
       <c r="M8" s="15"/>
     </row>
     <row r="9" spans="1:13" ht="23" customHeight="1" thickBot="1">
-      <c r="A9" s="190" t="s">
+      <c r="A9" s="194" t="s">
         <v>440</v>
       </c>
-      <c r="B9" s="192" t="s">
+      <c r="B9" s="196" t="s">
         <v>441</v>
       </c>
       <c r="C9" s="17" t="s">
@@ -33563,8 +33563,8 @@
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:13" ht="133" thickBot="1">
-      <c r="A10" s="191"/>
-      <c r="B10" s="193"/>
+      <c r="A10" s="195"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="17" t="s">
         <v>443</v>
       </c>
@@ -34747,16 +34747,16 @@
       <c r="E52" s="129" t="s">
         <v>501</v>
       </c>
-      <c r="F52" s="194" t="s">
+      <c r="F52" s="198" t="s">
         <v>502</v>
       </c>
-      <c r="G52" s="195"/>
-      <c r="H52" s="194" t="s">
+      <c r="G52" s="199"/>
+      <c r="H52" s="198" t="s">
         <v>503</v>
       </c>
-      <c r="I52" s="196"/>
-      <c r="J52" s="196"/>
-      <c r="K52" s="195"/>
+      <c r="I52" s="200"/>
+      <c r="J52" s="200"/>
+      <c r="K52" s="199"/>
     </row>
     <row r="53" spans="1:25" s="130" customFormat="1" ht="21" customHeight="1">
       <c r="A53" s="131" t="s">
@@ -34774,16 +34774,16 @@
       <c r="E53" s="132" t="s">
         <v>507</v>
       </c>
-      <c r="F53" s="197" t="s">
+      <c r="F53" s="201" t="s">
         <v>507</v>
       </c>
-      <c r="G53" s="186"/>
-      <c r="H53" s="198" t="s">
+      <c r="G53" s="202"/>
+      <c r="H53" s="203" t="s">
         <v>508</v>
       </c>
-      <c r="I53" s="186"/>
-      <c r="J53" s="186"/>
-      <c r="K53" s="186"/>
+      <c r="I53" s="202"/>
+      <c r="J53" s="202"/>
+      <c r="K53" s="202"/>
       <c r="L53" s="133"/>
       <c r="M53" s="133"/>
       <c r="N53" s="134"/>
@@ -34813,14 +34813,14 @@
         <v>507</v>
       </c>
       <c r="E54" s="132"/>
-      <c r="F54" s="185"/>
-      <c r="G54" s="186"/>
-      <c r="H54" s="187" t="s">
+      <c r="F54" s="206"/>
+      <c r="G54" s="202"/>
+      <c r="H54" s="207" t="s">
         <v>511</v>
       </c>
-      <c r="I54" s="186"/>
-      <c r="J54" s="186"/>
-      <c r="K54" s="186"/>
+      <c r="I54" s="202"/>
+      <c r="J54" s="202"/>
+      <c r="K54" s="202"/>
       <c r="L54" s="133"/>
       <c r="M54" s="133"/>
       <c r="N54" s="134"/>
@@ -34852,14 +34852,14 @@
       <c r="E55" s="132" t="s">
         <v>507</v>
       </c>
-      <c r="F55" s="185"/>
-      <c r="G55" s="186"/>
-      <c r="H55" s="187" t="s">
+      <c r="F55" s="206"/>
+      <c r="G55" s="202"/>
+      <c r="H55" s="207" t="s">
         <v>514</v>
       </c>
-      <c r="I55" s="186"/>
-      <c r="J55" s="186"/>
-      <c r="K55" s="186"/>
+      <c r="I55" s="202"/>
+      <c r="J55" s="202"/>
+      <c r="K55" s="202"/>
       <c r="L55" s="133"/>
       <c r="M55" s="133"/>
       <c r="N55" s="134"/>
@@ -34932,19 +34932,19 @@
       <c r="Y57" s="134"/>
     </row>
     <row r="58" spans="1:25" s="141" customFormat="1" ht="21" customHeight="1">
-      <c r="A58" s="188" t="s">
+      <c r="A58" s="208" t="s">
         <v>516</v>
       </c>
-      <c r="B58" s="189"/>
-      <c r="C58" s="189"/>
-      <c r="D58" s="189"/>
-      <c r="E58" s="189"/>
-      <c r="F58" s="189"/>
-      <c r="G58" s="189"/>
-      <c r="H58" s="189"/>
-      <c r="I58" s="189"/>
-      <c r="J58" s="189"/>
-      <c r="K58" s="189"/>
+      <c r="B58" s="209"/>
+      <c r="C58" s="209"/>
+      <c r="D58" s="209"/>
+      <c r="E58" s="209"/>
+      <c r="F58" s="209"/>
+      <c r="G58" s="209"/>
+      <c r="H58" s="209"/>
+      <c r="I58" s="209"/>
+      <c r="J58" s="209"/>
+      <c r="K58" s="209"/>
       <c r="L58" s="133"/>
       <c r="M58" s="133"/>
       <c r="N58" s="134"/>
@@ -34961,19 +34961,19 @@
       <c r="Y58" s="134"/>
     </row>
     <row r="59" spans="1:25" s="141" customFormat="1" ht="21" customHeight="1">
-      <c r="A59" s="183" t="s">
+      <c r="A59" s="204" t="s">
         <v>517</v>
       </c>
-      <c r="B59" s="184"/>
-      <c r="C59" s="184"/>
-      <c r="D59" s="184"/>
-      <c r="E59" s="184"/>
-      <c r="F59" s="184"/>
-      <c r="G59" s="184"/>
-      <c r="H59" s="184"/>
-      <c r="I59" s="184"/>
-      <c r="J59" s="184"/>
-      <c r="K59" s="184"/>
+      <c r="B59" s="205"/>
+      <c r="C59" s="205"/>
+      <c r="D59" s="205"/>
+      <c r="E59" s="205"/>
+      <c r="F59" s="205"/>
+      <c r="G59" s="205"/>
+      <c r="H59" s="205"/>
+      <c r="I59" s="205"/>
+      <c r="J59" s="205"/>
+      <c r="K59" s="205"/>
       <c r="L59" s="142"/>
       <c r="M59" s="142"/>
       <c r="N59" s="142"/>
@@ -34990,19 +34990,19 @@
       <c r="Y59" s="142"/>
     </row>
     <row r="60" spans="1:25" s="141" customFormat="1" ht="21" customHeight="1">
-      <c r="A60" s="183" t="s">
+      <c r="A60" s="204" t="s">
         <v>518</v>
       </c>
-      <c r="B60" s="184"/>
-      <c r="C60" s="184"/>
-      <c r="D60" s="184"/>
-      <c r="E60" s="184"/>
-      <c r="F60" s="184"/>
-      <c r="G60" s="184"/>
-      <c r="H60" s="184"/>
-      <c r="I60" s="184"/>
-      <c r="J60" s="184"/>
-      <c r="K60" s="184"/>
+      <c r="B60" s="205"/>
+      <c r="C60" s="205"/>
+      <c r="D60" s="205"/>
+      <c r="E60" s="205"/>
+      <c r="F60" s="205"/>
+      <c r="G60" s="205"/>
+      <c r="H60" s="205"/>
+      <c r="I60" s="205"/>
+      <c r="J60" s="205"/>
+      <c r="K60" s="205"/>
       <c r="L60" s="142"/>
       <c r="M60" s="142"/>
       <c r="N60" s="142"/>
@@ -35019,19 +35019,19 @@
       <c r="Y60" s="142"/>
     </row>
     <row r="61" spans="1:25" s="141" customFormat="1" ht="21" customHeight="1">
-      <c r="A61" s="183" t="s">
+      <c r="A61" s="204" t="s">
         <v>519</v>
       </c>
-      <c r="B61" s="184"/>
-      <c r="C61" s="184"/>
-      <c r="D61" s="184"/>
-      <c r="E61" s="184"/>
-      <c r="F61" s="184"/>
-      <c r="G61" s="184"/>
-      <c r="H61" s="184"/>
-      <c r="I61" s="184"/>
-      <c r="J61" s="184"/>
-      <c r="K61" s="184"/>
+      <c r="B61" s="205"/>
+      <c r="C61" s="205"/>
+      <c r="D61" s="205"/>
+      <c r="E61" s="205"/>
+      <c r="F61" s="205"/>
+      <c r="G61" s="205"/>
+      <c r="H61" s="205"/>
+      <c r="I61" s="205"/>
+      <c r="J61" s="205"/>
+      <c r="K61" s="205"/>
       <c r="L61" s="142"/>
       <c r="M61" s="142"/>
       <c r="N61" s="142"/>
@@ -35049,12 +35049,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:K52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:K53"/>
     <mergeCell ref="A59:K59"/>
     <mergeCell ref="A60:K60"/>
     <mergeCell ref="A61:K61"/>
@@ -35063,6 +35057,12 @@
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="A58:K58"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:K53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -35083,7 +35083,7 @@
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="102" customWidth="1"/>
     <col min="2" max="2" width="55" style="123" customWidth="1"/>
@@ -35110,7 +35110,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="21">
+    <row r="3" spans="2:4">
       <c r="B3" s="124" t="s">
         <v>11</v>
       </c>
@@ -36986,6 +36986,40 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="aac732e6-025c-4ee7-b4ee-51e734c7e3c2">
+      <Value>56</Value>
+    </TaxCatchAll>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="77afe15d-964f-4fcd-b29c-fe68ba313244">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SortOverride xmlns="77afe15d-964f-4fcd-b29c-fe68ba313244" xsi:nil="true"/>
+    <LineofBusiness xmlns="77afe15d-964f-4fcd-b29c-fe68ba313244" xsi:nil="true"/>
+    <g9d8d1341be943659fe7019ffda71642 xmlns="77afe15d-964f-4fcd-b29c-fe68ba313244">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Missing Artifact Name</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0e932690-dc0e-4f08-9ccb-c731d4198ec6</TermId>
+        </TermInfo>
+      </Terms>
+    </g9d8d1341be943659fe7019ffda71642>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0EA1EBEB6FB4846905E3735E1CEF302" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4022ae430d6e886ca20e8f66e96c2a6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="77afe15d-964f-4fcd-b29c-fe68ba313244" xmlns:ns3="aac732e6-025c-4ee7-b4ee-51e734c7e3c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="092680521ca57a1912dc02d060f47c1f" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -37279,41 +37313,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="aac732e6-025c-4ee7-b4ee-51e734c7e3c2">
-      <Value>56</Value>
-    </TaxCatchAll>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="77afe15d-964f-4fcd-b29c-fe68ba313244">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SortOverride xmlns="77afe15d-964f-4fcd-b29c-fe68ba313244" xsi:nil="true"/>
-    <LineofBusiness xmlns="77afe15d-964f-4fcd-b29c-fe68ba313244" xsi:nil="true"/>
-    <g9d8d1341be943659fe7019ffda71642 xmlns="77afe15d-964f-4fcd-b29c-fe68ba313244">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Missing Artifact Name</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">0e932690-dc0e-4f08-9ccb-c731d4198ec6</TermId>
-        </TermInfo>
-      </Terms>
-    </g9d8d1341be943659fe7019ffda71642>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23979901-CEA5-4FFB-B831-38E165DBAAF4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95762332-5F4E-4886-A2D4-0D5BA8FCA41E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aac732e6-025c-4ee7-b4ee-51e734c7e3c2"/>
+    <ds:schemaRef ds:uri="77afe15d-964f-4fcd-b29c-fe68ba313244"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D10FEE0E-8340-4C2D-90B6-9D38303486F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -37331,24 +37351,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95762332-5F4E-4886-A2D4-0D5BA8FCA41E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aac732e6-025c-4ee7-b4ee-51e734c7e3c2"/>
-    <ds:schemaRef ds:uri="77afe15d-964f-4fcd-b29c-fe68ba313244"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23979901-CEA5-4FFB-B831-38E165DBAAF4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>